--- a/Opts.xlsx
+++ b/Opts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Opt</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>MMA8451 Auto Sleep mode enabled</t>
+  </si>
+  <si>
+    <t>Only Red LED all thru test</t>
+  </si>
+  <si>
+    <t>Approx atan2f</t>
+  </si>
+  <si>
+    <t>O3 opt, Optimize for time, --fpmode=fast, Only Red thru out test</t>
   </si>
 </sst>
 </file>
@@ -92,11 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,6 +450,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="2">
+        <v>5.8333333333333327E-2</v>
+      </c>
       <c r="D3">
         <v>84</v>
       </c>
@@ -450,7 +463,7 @@
         <v>1.6619999999999999</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="0">1000*(0.1*(E3^2 - F3^2))/(2*D3)</f>
+        <f t="shared" ref="G3:G8" si="0">1000*(0.1*(E3^2 - F3^2))/(2*D3)</f>
         <v>4.4510452380952392</v>
       </c>
     </row>
@@ -461,6 +474,9 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="2">
+        <v>0.34930555555555554</v>
+      </c>
       <c r="D4">
         <v>503</v>
       </c>
@@ -482,6 +498,9 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="2">
+        <v>0.36736111111111108</v>
+      </c>
       <c r="D5">
         <v>529</v>
       </c>
@@ -497,8 +516,72 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="D6">
+        <v>472</v>
+      </c>
+      <c r="E6">
+        <v>3.238</v>
+      </c>
+      <c r="F6">
+        <v>1.54</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.85943262711864399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="D7">
+        <v>430</v>
+      </c>
+      <c r="E7">
+        <v>3.238</v>
+      </c>
+      <c r="F7">
+        <v>1.56</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.93616790697674412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="D8">
+        <v>522</v>
+      </c>
+      <c r="E8">
+        <v>3.242</v>
+      </c>
+      <c r="F8">
+        <v>1.6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.76154827586206886</v>
       </c>
     </row>
   </sheetData>
